--- a/biology/Médecine/Mary_et_Martha___Deux_Mères_courage/Mary_et_Martha___Deux_Mères_courage.xlsx
+++ b/biology/Médecine/Mary_et_Martha___Deux_Mères_courage/Mary_et_Martha___Deux_Mères_courage.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Mary_et_Martha_:_Deux_M%C3%A8res_courage</t>
+          <t>Mary_et_Martha_:_Deux_Mères_courage</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Mary et Martha : Deux Mères courage (Mary and Martha) est un téléfilm dramatique anglo-américain réalisé par Phillip Noyce et diffusé en 2013. Il s'inspire d'une histoire vécue de deux femmes luttent contre la malaria dont leurs fils ont été victimes en Afrique.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Mary_et_Martha_:_Deux_M%C3%A8res_courage</t>
+          <t>Mary_et_Martha_:_Deux_Mères_courage</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Aux États-Unis, une mère apprend que son fils est maltraité par deux camarades à l'école et décide de l'emmener avec elle en Afrique pour passer de meilleurs moments ensemble. Tout se tourne au drame lorsque l'adolescent est victime de la malaria dont il meurt au bout de trois jours malgré le long trajet jusqu'à l’hôpital. Effondrée, elle rencontre une femme anglaise qui a également perdu son fils au Mozambique à cause de cette maladie. Toutes deux vont alors combattre cette maladie infectieuse.
 </t>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Mary_et_Martha_:_Deux_M%C3%A8res_courage</t>
+          <t>Mary_et_Martha_:_Deux_Mères_courage</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,7 +556,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Titre original : Mary and Martha
 Titre français : Mary et Martha : Deux Mères courage
@@ -575,7 +591,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Mary_et_Martha_:_Deux_M%C3%A8res_courage</t>
+          <t>Mary_et_Martha_:_Deux_Mères_courage</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -593,7 +609,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Hilary Swank (V. F. : Marjorie Frantz ; V. Q. : Camille Cyr-Desmarais) : Mary
 Brenda Blethyn (V. F. : Martine Irzenski ; V. Q. : Johanne Garneau) : Martha
@@ -606,7 +624,7 @@
 Ian Redford (V. Q. : Vincent Davy) : Charles
 Kagiso Lediga : Kumi
 Stephanie Faracy (V. F. : Élisabeth Fargeot) : Mme Benson, la responsable du comité
-Source et légende : Version française (V. F.) sur RS Doublage[1] et Version québécoise (V. Q.) sur Doublage Québec[2]</t>
+Source et légende : Version française (V. F.) sur RS Doublage et Version québécoise (V. Q.) sur Doublage Québec</t>
         </is>
       </c>
     </row>
@@ -616,7 +634,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Mary_et_Martha_:_Deux_M%C3%A8res_courage</t>
+          <t>Mary_et_Martha_:_Deux_Mères_courage</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -635,6 +653,8 @@
         </is>
       </c>
       <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -642,7 +662,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Mary_et_Martha_:_Deux_M%C3%A8res_courage</t>
+          <t>Mary_et_Martha_:_Deux_Mères_courage</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -662,10 +682,15 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Diffusions internationales
-Le téléfilm est d'abord diffusé le 1er mars 2013 sur BBC au Royaume-Uni et le 20 avril 2013 sur HBO aux États-Unis.
+          <t>Diffusions internationales</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le téléfilm est d'abord diffusé le 1er mars 2013 sur BBC au Royaume-Uni et le 20 avril 2013 sur HBO aux États-Unis.
 En France, TF1 l'achète pour une diffusion prévue le 11 juin 2013.
-Accueil critique</t>
+</t>
         </is>
       </c>
     </row>
